--- a/Tracker - sample exam attempts.xlsx
+++ b/Tracker - sample exam attempts.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hw1\Desktop\_workuhm\OCS\certifications\sas\Exam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\OCS\Certifications\SAS\01 SAS Clinical Trials\02 Exam attempts\sas_cerifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="SAS Clinical Trials (Sample Exa" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="168">
   <si>
     <t>Response</t>
   </si>
@@ -526,10 +526,6 @@
   <si>
     <t>See also INDEX, FIND, INDEXW</t>
   </si>
-  <si>
-    <t>GRADE 
-(First attempt)</t>
-  </si>
 </sst>
 </file>
 
@@ -624,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -669,14 +665,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -964,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S1001"/>
+  <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5870,13 +5862,6 @@
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
       <c r="M101" s="10"/>
-      <c r="O101" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="P101" s="21">
-        <f>SUM(P2:P100)</f>
-        <v>55</v>
-      </c>
     </row>
     <row r="102" spans="1:17" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="10"/>
@@ -14867,16 +14852,6 @@
       <c r="I1000" s="10"/>
       <c r="J1000" s="10"/>
       <c r="M1000" s="10"/>
-    </row>
-    <row r="1001" spans="2:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1001" s="10"/>
-      <c r="E1001" s="10"/>
-      <c r="F1001" s="10"/>
-      <c r="G1001" s="10"/>
-      <c r="H1001" s="10"/>
-      <c r="I1001" s="10"/>
-      <c r="J1001" s="10"/>
-      <c r="M1001" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14895,24 +14870,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
@@ -14954,9 +14929,9 @@
         <f>ROUND((COUNTIF('SAS Clinical Trials (Sample Exa'!N2:N100,"Not Filled")/99)*100, 2)&amp;"%"</f>
         <v>10.1%</v>
       </c>
-      <c r="F4" s="8">
-        <f>'SAS Clinical Trials (Sample Exa'!P101</f>
-        <v>55</v>
+      <c r="F4" s="8" t="e">
+        <f>'SAS Clinical Trials (Sample Exa'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
